--- a/ig/r4-ig-starter/pr-3/main/FROM-ShahimEssaid/fhirware/main-b2--merged/StructureDefinition-myObservation.xlsx
+++ b/ig/r4-ig-starter/pr-3/main/FROM-ShahimEssaid/fhirware/main-b2--merged/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T07:13:09+00:00</t>
+    <t>2022-05-26T07:33:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/r4-ig-starter/pr-3/main/FROM-ShahimEssaid/fhirware/main-b2--merged/StructureDefinition-myObservation.xlsx
+++ b/ig/r4-ig-starter/pr-3/main/FROM-ShahimEssaid/fhirware/main-b2--merged/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T07:33:16+00:00</t>
+    <t>2022-05-26T07:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/r4-ig-starter/pr-3/main/FROM-ShahimEssaid/fhirware/main-b2--merged/StructureDefinition-myObservation.xlsx
+++ b/ig/r4-ig-starter/pr-3/main/FROM-ShahimEssaid/fhirware/main-b2--merged/StructureDefinition-myObservation.xlsx
@@ -84,7 +84,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T07:51:20+00:00</t>
+    <t>2022-05-26T08:15:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
